--- a/test/mockdata/files/test_uploads/xlsxTest.xlsx
+++ b/test/mockdata/files/test_uploads/xlsxTest.xlsx
@@ -11877,9 +11877,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12248,13 +12249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
@@ -12263,7 +12264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -12283,7 +12284,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -12303,7 +12304,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -12323,7 +12324,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -12343,7 +12344,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -12363,7 +12364,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -12383,7 +12384,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -12403,7 +12404,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -12423,7 +12424,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -12443,7 +12444,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -12463,7 +12464,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -12483,7 +12484,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -12503,7 +12504,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -12523,7 +12524,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12543,7 +12544,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -12563,7 +12564,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -12583,7 +12584,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -12603,7 +12604,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -12623,7 +12624,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -12643,7 +12644,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -12663,7 +12664,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -12683,7 +12684,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -12703,7 +12704,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -12723,7 +12724,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -12743,7 +12744,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -12763,7 +12764,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -12783,7 +12784,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -12803,7 +12804,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -12823,7 +12824,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -12843,7 +12844,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -12863,7 +12864,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -12883,7 +12884,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -12903,7 +12904,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -12923,7 +12924,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -12943,7 +12944,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -12963,7 +12964,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -12983,7 +12984,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -13003,7 +13004,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -13023,7 +13024,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -13043,7 +13044,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -13063,7 +13064,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -13083,7 +13084,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -13103,7 +13104,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -13123,7 +13124,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -13143,7 +13144,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -13163,7 +13164,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -13183,7 +13184,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -13203,7 +13204,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -13223,7 +13224,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -13243,7 +13244,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -13263,7 +13264,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -13283,7 +13284,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -13303,7 +13304,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -13323,7 +13324,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -13343,7 +13344,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -13363,7 +13364,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -13383,7 +13384,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -13403,7 +13404,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -13423,7 +13424,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -13443,7 +13444,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -13463,7 +13464,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -13483,7 +13484,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -13503,7 +13504,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -13523,7 +13524,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -13543,7 +13544,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -13563,7 +13564,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -13583,7 +13584,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -13603,7 +13604,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -13623,7 +13624,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -13643,7 +13644,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -13663,7 +13664,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -13683,7 +13684,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -13703,7 +13704,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -13723,7 +13724,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -13743,7 +13744,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -13763,7 +13764,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -13783,7 +13784,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -13803,7 +13804,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -13823,7 +13824,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -13843,7 +13844,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -13863,7 +13864,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -13883,7 +13884,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -13903,7 +13904,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -13923,7 +13924,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -13943,7 +13944,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -13963,7 +13964,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -13983,7 +13984,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -14003,7 +14004,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -14023,7 +14024,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -14043,7 +14044,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -14063,7 +14064,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -14083,7 +14084,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -14103,7 +14104,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -14123,7 +14124,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -14143,7 +14144,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -14163,7 +14164,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -14183,7 +14184,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -14203,7 +14204,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -14223,7 +14224,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -14243,7 +14244,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -14263,7 +14264,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -14283,7 +14284,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -14303,7 +14304,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -14323,7 +14324,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -14343,7 +14344,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -14363,7 +14364,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -14383,7 +14384,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -14403,7 +14404,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -14423,7 +14424,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -14443,7 +14444,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -14463,7 +14464,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -14483,7 +14484,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -14503,7 +14504,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -14523,7 +14524,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -14543,7 +14544,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -14563,7 +14564,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -14583,7 +14584,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -14603,7 +14604,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -14623,7 +14624,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -14643,7 +14644,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -14663,7 +14664,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -14683,7 +14684,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -14703,7 +14704,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -14723,7 +14724,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -14743,7 +14744,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125">
+      <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -14763,7 +14764,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -14783,7 +14784,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127">
+      <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -14803,7 +14804,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -14823,7 +14824,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -14843,7 +14844,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -14863,7 +14864,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131">
+      <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -14883,7 +14884,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -14903,7 +14904,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -14923,7 +14924,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -14943,7 +14944,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -14963,7 +14964,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -14983,7 +14984,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -15003,7 +15004,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -15023,7 +15024,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139">
+      <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -15043,7 +15044,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -15063,7 +15064,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -15083,7 +15084,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -15103,7 +15104,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143">
+      <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -15123,7 +15124,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -15143,7 +15144,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145">
+      <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -15163,7 +15164,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -15183,7 +15184,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147">
+      <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -15203,7 +15204,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -15223,7 +15224,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -15243,7 +15244,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -15263,7 +15264,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -15283,7 +15284,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -15303,7 +15304,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -15323,7 +15324,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -15343,7 +15344,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155">
+      <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -15363,7 +15364,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156">
+      <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -15383,7 +15384,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157">
+      <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -15403,7 +15404,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158">
+      <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -15423,7 +15424,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159">
+      <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -15443,7 +15444,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160">
+      <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -15463,7 +15464,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -15483,7 +15484,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162">
+      <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -15503,7 +15504,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163">
+      <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -15523,7 +15524,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164">
+      <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -15543,7 +15544,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165">
+      <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -15563,7 +15564,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -15583,7 +15584,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167">
+      <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -15603,7 +15604,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -15623,7 +15624,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169">
+      <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -15643,7 +15644,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170">
+      <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -15663,7 +15664,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -15683,7 +15684,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172">
+      <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -15703,7 +15704,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A173">
+      <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -15723,7 +15724,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A174">
+      <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -15743,7 +15744,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A175">
+      <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -15763,7 +15764,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A176">
+      <c r="A176" s="2">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -15783,7 +15784,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A177">
+      <c r="A177" s="2">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -15803,7 +15804,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A178">
+      <c r="A178" s="2">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -15823,7 +15824,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A179">
+      <c r="A179" s="2">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -15843,7 +15844,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A180">
+      <c r="A180" s="2">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -15863,7 +15864,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A181">
+      <c r="A181" s="2">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -15883,7 +15884,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A182">
+      <c r="A182" s="2">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -15903,7 +15904,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A183">
+      <c r="A183" s="2">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -15923,7 +15924,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A184">
+      <c r="A184" s="2">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -15943,7 +15944,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A185">
+      <c r="A185" s="2">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -15963,7 +15964,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A186">
+      <c r="A186" s="2">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -15983,7 +15984,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A187">
+      <c r="A187" s="2">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -16003,7 +16004,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A188">
+      <c r="A188" s="2">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -16023,7 +16024,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A189">
+      <c r="A189" s="2">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -16043,7 +16044,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A190">
+      <c r="A190" s="2">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -16063,7 +16064,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A191">
+      <c r="A191" s="2">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -16083,7 +16084,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A192">
+      <c r="A192" s="2">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -16103,7 +16104,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A193">
+      <c r="A193" s="2">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -16123,7 +16124,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A194">
+      <c r="A194" s="2">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -16143,7 +16144,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A195">
+      <c r="A195" s="2">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -16163,7 +16164,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A196">
+      <c r="A196" s="2">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -16183,7 +16184,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A197">
+      <c r="A197" s="2">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -16203,7 +16204,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A198">
+      <c r="A198" s="2">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -16223,7 +16224,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A199">
+      <c r="A199" s="2">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -16243,7 +16244,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A200">
+      <c r="A200" s="2">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -16263,7 +16264,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A201">
+      <c r="A201" s="2">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -16283,7 +16284,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A202">
+      <c r="A202" s="2">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -16303,7 +16304,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A203">
+      <c r="A203" s="2">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -16323,7 +16324,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A204">
+      <c r="A204" s="2">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -16343,7 +16344,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A205">
+      <c r="A205" s="2">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -16363,7 +16364,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A206">
+      <c r="A206" s="2">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -16383,7 +16384,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A207">
+      <c r="A207" s="2">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -16403,7 +16404,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A208">
+      <c r="A208" s="2">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -16423,7 +16424,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A209">
+      <c r="A209" s="2">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -16443,7 +16444,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A210">
+      <c r="A210" s="2">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -16463,7 +16464,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A211">
+      <c r="A211" s="2">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -16483,7 +16484,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A212">
+      <c r="A212" s="2">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -16503,7 +16504,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A213">
+      <c r="A213" s="2">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -16523,7 +16524,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A214">
+      <c r="A214" s="2">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -16543,7 +16544,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A215">
+      <c r="A215" s="2">
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -16563,7 +16564,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A216">
+      <c r="A216" s="2">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -16583,7 +16584,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A217">
+      <c r="A217" s="2">
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -16603,7 +16604,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A218">
+      <c r="A218" s="2">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -16623,7 +16624,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A219">
+      <c r="A219" s="2">
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -16643,7 +16644,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A220">
+      <c r="A220" s="2">
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -16663,7 +16664,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A221">
+      <c r="A221" s="2">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -16683,7 +16684,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A222">
+      <c r="A222" s="2">
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -16703,7 +16704,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A223">
+      <c r="A223" s="2">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -16723,7 +16724,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A224">
+      <c r="A224" s="2">
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -16743,7 +16744,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A225">
+      <c r="A225" s="2">
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -16763,7 +16764,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226">
+      <c r="A226" s="2">
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -16783,7 +16784,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A227">
+      <c r="A227" s="2">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -16803,7 +16804,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A228">
+      <c r="A228" s="2">
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -16823,7 +16824,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A229">
+      <c r="A229" s="2">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -16843,7 +16844,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A230">
+      <c r="A230" s="2">
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -16863,7 +16864,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A231">
+      <c r="A231" s="2">
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -16883,7 +16884,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A232">
+      <c r="A232" s="2">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -16903,7 +16904,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A233">
+      <c r="A233" s="2">
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -16923,7 +16924,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A234">
+      <c r="A234" s="2">
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -16943,7 +16944,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A235">
+      <c r="A235" s="2">
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -16963,7 +16964,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A236">
+      <c r="A236" s="2">
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -16983,7 +16984,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A237">
+      <c r="A237" s="2">
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -17003,7 +17004,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A238">
+      <c r="A238" s="2">
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -17023,7 +17024,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A239">
+      <c r="A239" s="2">
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -17043,7 +17044,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A240">
+      <c r="A240" s="2">
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -17063,7 +17064,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A241">
+      <c r="A241" s="2">
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -17083,7 +17084,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A242">
+      <c r="A242" s="2">
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -17103,7 +17104,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A243">
+      <c r="A243" s="2">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -17123,7 +17124,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A244">
+      <c r="A244" s="2">
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -17143,7 +17144,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245">
+      <c r="A245" s="2">
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -17163,7 +17164,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A246">
+      <c r="A246" s="2">
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -17183,7 +17184,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247">
+      <c r="A247" s="2">
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -17203,7 +17204,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A248">
+      <c r="A248" s="2">
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -17223,7 +17224,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249">
+      <c r="A249" s="2">
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -17243,7 +17244,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A250">
+      <c r="A250" s="2">
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -17263,7 +17264,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A251">
+      <c r="A251" s="2">
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -17283,7 +17284,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A252">
+      <c r="A252" s="2">
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -17303,7 +17304,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A253">
+      <c r="A253" s="2">
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -17323,7 +17324,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A254">
+      <c r="A254" s="2">
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -17343,7 +17344,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A255">
+      <c r="A255" s="2">
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -17363,7 +17364,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A256">
+      <c r="A256" s="2">
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -17383,7 +17384,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A257">
+      <c r="A257" s="2">
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -17403,7 +17404,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A258">
+      <c r="A258" s="2">
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -17423,7 +17424,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A259">
+      <c r="A259" s="2">
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -17443,7 +17444,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A260">
+      <c r="A260" s="2">
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -17463,7 +17464,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A261">
+      <c r="A261" s="2">
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -17483,7 +17484,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A262">
+      <c r="A262" s="2">
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -17503,7 +17504,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A263">
+      <c r="A263" s="2">
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -17523,7 +17524,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A264">
+      <c r="A264" s="2">
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -17543,7 +17544,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A265">
+      <c r="A265" s="2">
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -17563,7 +17564,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A266">
+      <c r="A266" s="2">
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -17583,7 +17584,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A267">
+      <c r="A267" s="2">
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -17603,7 +17604,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A268">
+      <c r="A268" s="2">
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -17623,7 +17624,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A269">
+      <c r="A269" s="2">
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -17643,7 +17644,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A270">
+      <c r="A270" s="2">
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -17663,7 +17664,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A271">
+      <c r="A271" s="2">
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -17683,7 +17684,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A272">
+      <c r="A272" s="2">
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -17703,7 +17704,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A273">
+      <c r="A273" s="2">
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -17723,7 +17724,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A274">
+      <c r="A274" s="2">
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -17743,7 +17744,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A275">
+      <c r="A275" s="2">
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -17763,7 +17764,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A276">
+      <c r="A276" s="2">
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -17783,7 +17784,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A277">
+      <c r="A277" s="2">
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -17803,7 +17804,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A278">
+      <c r="A278" s="2">
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -17823,7 +17824,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A279">
+      <c r="A279" s="2">
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -17843,7 +17844,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A280">
+      <c r="A280" s="2">
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -17863,7 +17864,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A281">
+      <c r="A281" s="2">
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -17883,7 +17884,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A282">
+      <c r="A282" s="2">
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -17903,7 +17904,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A283">
+      <c r="A283" s="2">
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -17923,7 +17924,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A284">
+      <c r="A284" s="2">
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -17943,7 +17944,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A285">
+      <c r="A285" s="2">
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -17963,7 +17964,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A286">
+      <c r="A286" s="2">
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -17983,7 +17984,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A287">
+      <c r="A287" s="2">
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -18003,7 +18004,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A288">
+      <c r="A288" s="2">
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -18023,7 +18024,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A289">
+      <c r="A289" s="2">
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -18043,7 +18044,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A290">
+      <c r="A290" s="2">
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
@@ -18063,7 +18064,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A291">
+      <c r="A291" s="2">
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -18083,7 +18084,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A292">
+      <c r="A292" s="2">
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -18103,7 +18104,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A293">
+      <c r="A293" s="2">
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -18123,7 +18124,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A294">
+      <c r="A294" s="2">
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -18143,7 +18144,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A295">
+      <c r="A295" s="2">
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -18163,7 +18164,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A296">
+      <c r="A296" s="2">
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -18183,7 +18184,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A297">
+      <c r="A297" s="2">
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -18203,7 +18204,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A298">
+      <c r="A298" s="2">
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -18223,7 +18224,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A299">
+      <c r="A299" s="2">
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -18243,7 +18244,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A300">
+      <c r="A300" s="2">
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -18263,7 +18264,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A301">
+      <c r="A301" s="2">
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
@@ -18283,7 +18284,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A302">
+      <c r="A302" s="2">
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -18303,7 +18304,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A303">
+      <c r="A303" s="2">
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
@@ -18323,7 +18324,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A304">
+      <c r="A304" s="2">
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
@@ -18343,7 +18344,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A305">
+      <c r="A305" s="2">
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
@@ -18363,7 +18364,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A306">
+      <c r="A306" s="2">
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
@@ -18383,7 +18384,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A307">
+      <c r="A307" s="2">
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
@@ -18403,7 +18404,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A308">
+      <c r="A308" s="2">
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
@@ -18423,7 +18424,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A309">
+      <c r="A309" s="2">
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
@@ -18443,7 +18444,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A310">
+      <c r="A310" s="2">
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -18463,7 +18464,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A311">
+      <c r="A311" s="2">
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -18483,7 +18484,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A312">
+      <c r="A312" s="2">
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
@@ -18503,7 +18504,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A313">
+      <c r="A313" s="2">
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -18523,7 +18524,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A314">
+      <c r="A314" s="2">
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
@@ -18543,7 +18544,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A315">
+      <c r="A315" s="2">
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -18563,7 +18564,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A316">
+      <c r="A316" s="2">
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
@@ -18583,7 +18584,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A317">
+      <c r="A317" s="2">
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
@@ -18603,7 +18604,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A318">
+      <c r="A318" s="2">
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -18623,7 +18624,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A319">
+      <c r="A319" s="2">
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
@@ -18643,7 +18644,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A320">
+      <c r="A320" s="2">
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
@@ -18663,7 +18664,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A321">
+      <c r="A321" s="2">
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
@@ -18683,7 +18684,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A322">
+      <c r="A322" s="2">
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -18703,7 +18704,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A323">
+      <c r="A323" s="2">
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
@@ -18723,7 +18724,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A324">
+      <c r="A324" s="2">
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -18743,7 +18744,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A325">
+      <c r="A325" s="2">
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
@@ -18763,7 +18764,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A326">
+      <c r="A326" s="2">
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -18783,7 +18784,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A327">
+      <c r="A327" s="2">
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -18803,7 +18804,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A328">
+      <c r="A328" s="2">
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -18823,7 +18824,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A329">
+      <c r="A329" s="2">
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -18843,7 +18844,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A330">
+      <c r="A330" s="2">
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
@@ -18863,7 +18864,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A331">
+      <c r="A331" s="2">
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
@@ -18883,7 +18884,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A332">
+      <c r="A332" s="2">
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -18903,7 +18904,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A333">
+      <c r="A333" s="2">
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
@@ -18923,7 +18924,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A334">
+      <c r="A334" s="2">
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
@@ -18943,7 +18944,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A335">
+      <c r="A335" s="2">
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
@@ -18963,7 +18964,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A336">
+      <c r="A336" s="2">
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -18983,7 +18984,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A337">
+      <c r="A337" s="2">
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -19003,7 +19004,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A338">
+      <c r="A338" s="2">
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -19023,7 +19024,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A339">
+      <c r="A339" s="2">
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -19043,7 +19044,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A340">
+      <c r="A340" s="2">
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -19063,7 +19064,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A341">
+      <c r="A341" s="2">
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -19083,7 +19084,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A342">
+      <c r="A342" s="2">
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -19103,7 +19104,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A343">
+      <c r="A343" s="2">
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -19123,7 +19124,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A344">
+      <c r="A344" s="2">
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -19143,7 +19144,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A345">
+      <c r="A345" s="2">
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -19163,7 +19164,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A346">
+      <c r="A346" s="2">
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -19183,7 +19184,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A347">
+      <c r="A347" s="2">
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -19203,7 +19204,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A348">
+      <c r="A348" s="2">
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -19223,7 +19224,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A349">
+      <c r="A349" s="2">
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -19243,7 +19244,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A350">
+      <c r="A350" s="2">
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -19263,7 +19264,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A351">
+      <c r="A351" s="2">
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -19283,7 +19284,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A352">
+      <c r="A352" s="2">
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
@@ -19303,7 +19304,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A353">
+      <c r="A353" s="2">
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -19323,7 +19324,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A354">
+      <c r="A354" s="2">
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -19343,7 +19344,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A355">
+      <c r="A355" s="2">
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -19363,7 +19364,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A356">
+      <c r="A356" s="2">
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -19383,7 +19384,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A357">
+      <c r="A357" s="2">
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -19403,7 +19404,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A358">
+      <c r="A358" s="2">
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -19423,7 +19424,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A359">
+      <c r="A359" s="2">
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -19443,7 +19444,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A360">
+      <c r="A360" s="2">
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -19463,7 +19464,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A361">
+      <c r="A361" s="2">
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -19483,7 +19484,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A362">
+      <c r="A362" s="2">
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -19503,7 +19504,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A363">
+      <c r="A363" s="2">
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -19523,7 +19524,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A364">
+      <c r="A364" s="2">
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -19543,7 +19544,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A365">
+      <c r="A365" s="2">
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -19563,7 +19564,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A366">
+      <c r="A366" s="2">
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -19583,7 +19584,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A367">
+      <c r="A367" s="2">
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -19603,7 +19604,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A368">
+      <c r="A368" s="2">
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -19623,7 +19624,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A369">
+      <c r="A369" s="2">
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -19643,7 +19644,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A370">
+      <c r="A370" s="2">
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -19663,7 +19664,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A371">
+      <c r="A371" s="2">
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -19683,7 +19684,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A372">
+      <c r="A372" s="2">
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -19703,7 +19704,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A373">
+      <c r="A373" s="2">
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -19723,7 +19724,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A374">
+      <c r="A374" s="2">
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -19743,7 +19744,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A375">
+      <c r="A375" s="2">
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -19763,7 +19764,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A376">
+      <c r="A376" s="2">
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -19783,7 +19784,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A377">
+      <c r="A377" s="2">
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -19803,7 +19804,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A378">
+      <c r="A378" s="2">
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -19823,7 +19824,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A379">
+      <c r="A379" s="2">
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -19843,7 +19844,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A380">
+      <c r="A380" s="2">
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -19863,7 +19864,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A381">
+      <c r="A381" s="2">
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -19883,7 +19884,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A382">
+      <c r="A382" s="2">
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -19903,7 +19904,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A383">
+      <c r="A383" s="2">
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -19923,7 +19924,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A384">
+      <c r="A384" s="2">
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -19943,7 +19944,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A385">
+      <c r="A385" s="2">
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -19963,7 +19964,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A386">
+      <c r="A386" s="2">
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -19983,7 +19984,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A387">
+      <c r="A387" s="2">
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -20003,7 +20004,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A388">
+      <c r="A388" s="2">
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -20023,7 +20024,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A389">
+      <c r="A389" s="2">
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -20043,7 +20044,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A390">
+      <c r="A390" s="2">
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -20063,7 +20064,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A391">
+      <c r="A391" s="2">
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -20083,7 +20084,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A392">
+      <c r="A392" s="2">
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -20103,7 +20104,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A393">
+      <c r="A393" s="2">
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -20123,7 +20124,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A394">
+      <c r="A394" s="2">
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -20143,7 +20144,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A395">
+      <c r="A395" s="2">
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -20163,7 +20164,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A396">
+      <c r="A396" s="2">
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -20183,7 +20184,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A397">
+      <c r="A397" s="2">
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -20203,7 +20204,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A398">
+      <c r="A398" s="2">
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -20223,7 +20224,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A399">
+      <c r="A399" s="2">
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -20243,7 +20244,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A400">
+      <c r="A400" s="2">
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -20263,7 +20264,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A401">
+      <c r="A401" s="2">
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -20283,7 +20284,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A402">
+      <c r="A402" s="2">
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -20303,7 +20304,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A403">
+      <c r="A403" s="2">
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -20323,7 +20324,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A404">
+      <c r="A404" s="2">
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -20343,7 +20344,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A405">
+      <c r="A405" s="2">
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -20363,7 +20364,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A406">
+      <c r="A406" s="2">
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -20383,7 +20384,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A407">
+      <c r="A407" s="2">
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -20403,7 +20404,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A408">
+      <c r="A408" s="2">
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -20423,7 +20424,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A409">
+      <c r="A409" s="2">
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -20443,7 +20444,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A410">
+      <c r="A410" s="2">
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -20463,7 +20464,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A411">
+      <c r="A411" s="2">
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -20483,7 +20484,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A412">
+      <c r="A412" s="2">
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -20503,7 +20504,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A413">
+      <c r="A413" s="2">
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -20523,7 +20524,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A414">
+      <c r="A414" s="2">
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -20543,7 +20544,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A415">
+      <c r="A415" s="2">
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -20563,7 +20564,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A416">
+      <c r="A416" s="2">
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -20583,7 +20584,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A417">
+      <c r="A417" s="2">
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -20603,7 +20604,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A418">
+      <c r="A418" s="2">
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -20623,7 +20624,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A419">
+      <c r="A419" s="2">
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -20643,7 +20644,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A420">
+      <c r="A420" s="2">
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -20663,7 +20664,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A421">
+      <c r="A421" s="2">
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -20683,7 +20684,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A422">
+      <c r="A422" s="2">
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -20703,7 +20704,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A423">
+      <c r="A423" s="2">
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -20723,7 +20724,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A424">
+      <c r="A424" s="2">
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -20743,7 +20744,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A425">
+      <c r="A425" s="2">
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -20763,7 +20764,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A426">
+      <c r="A426" s="2">
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -20783,7 +20784,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A427">
+      <c r="A427" s="2">
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -20803,7 +20804,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A428">
+      <c r="A428" s="2">
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -20823,7 +20824,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A429">
+      <c r="A429" s="2">
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -20843,7 +20844,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A430">
+      <c r="A430" s="2">
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -20863,7 +20864,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A431">
+      <c r="A431" s="2">
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -20883,7 +20884,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A432">
+      <c r="A432" s="2">
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -20903,7 +20904,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A433">
+      <c r="A433" s="2">
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -20923,7 +20924,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A434">
+      <c r="A434" s="2">
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -20943,7 +20944,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A435">
+      <c r="A435" s="2">
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -20963,7 +20964,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A436">
+      <c r="A436" s="2">
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -20983,7 +20984,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A437">
+      <c r="A437" s="2">
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -21003,7 +21004,7 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A438">
+      <c r="A438" s="2">
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -21023,7 +21024,7 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A439">
+      <c r="A439" s="2">
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -21043,7 +21044,7 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A440">
+      <c r="A440" s="2">
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -21063,7 +21064,7 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A441">
+      <c r="A441" s="2">
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -21083,7 +21084,7 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A442">
+      <c r="A442" s="2">
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -21103,7 +21104,7 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A443">
+      <c r="A443" s="2">
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
@@ -21123,7 +21124,7 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A444">
+      <c r="A444" s="2">
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
@@ -21143,7 +21144,7 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A445">
+      <c r="A445" s="2">
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -21163,7 +21164,7 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A446">
+      <c r="A446" s="2">
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -21183,7 +21184,7 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A447">
+      <c r="A447" s="2">
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -21203,7 +21204,7 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A448">
+      <c r="A448" s="2">
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
@@ -21223,7 +21224,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A449">
+      <c r="A449" s="2">
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -21243,7 +21244,7 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A450">
+      <c r="A450" s="2">
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
@@ -21263,7 +21264,7 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A451">
+      <c r="A451" s="2">
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
@@ -21283,7 +21284,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A452">
+      <c r="A452" s="2">
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
@@ -21303,7 +21304,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A453">
+      <c r="A453" s="2">
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
@@ -21323,7 +21324,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A454">
+      <c r="A454" s="2">
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
@@ -21343,7 +21344,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A455">
+      <c r="A455" s="2">
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
@@ -21363,7 +21364,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A456">
+      <c r="A456" s="2">
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
@@ -21383,7 +21384,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A457">
+      <c r="A457" s="2">
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
@@ -21403,7 +21404,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A458">
+      <c r="A458" s="2">
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
@@ -21423,7 +21424,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A459">
+      <c r="A459" s="2">
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
@@ -21443,7 +21444,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A460">
+      <c r="A460" s="2">
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
@@ -21463,7 +21464,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A461">
+      <c r="A461" s="2">
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
@@ -21483,7 +21484,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A462">
+      <c r="A462" s="2">
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
@@ -21503,7 +21504,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A463">
+      <c r="A463" s="2">
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
@@ -21523,7 +21524,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A464">
+      <c r="A464" s="2">
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -21543,7 +21544,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A465">
+      <c r="A465" s="2">
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
@@ -21563,7 +21564,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A466">
+      <c r="A466" s="2">
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
@@ -21583,7 +21584,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A467">
+      <c r="A467" s="2">
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
@@ -21603,7 +21604,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A468">
+      <c r="A468" s="2">
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
@@ -21623,7 +21624,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A469">
+      <c r="A469" s="2">
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
@@ -21643,7 +21644,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A470">
+      <c r="A470" s="2">
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
@@ -21663,7 +21664,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A471">
+      <c r="A471" s="2">
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
@@ -21683,7 +21684,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A472">
+      <c r="A472" s="2">
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -21703,7 +21704,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A473">
+      <c r="A473" s="2">
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -21723,7 +21724,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A474">
+      <c r="A474" s="2">
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -21743,7 +21744,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A475">
+      <c r="A475" s="2">
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
@@ -21763,7 +21764,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A476">
+      <c r="A476" s="2">
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -21783,7 +21784,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A477">
+      <c r="A477" s="2">
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
@@ -21803,7 +21804,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A478">
+      <c r="A478" s="2">
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -21823,7 +21824,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A479">
+      <c r="A479" s="2">
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -21843,7 +21844,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A480">
+      <c r="A480" s="2">
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -21863,7 +21864,7 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A481">
+      <c r="A481" s="2">
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -21883,7 +21884,7 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A482">
+      <c r="A482" s="2">
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -21903,7 +21904,7 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A483">
+      <c r="A483" s="2">
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -21923,7 +21924,7 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A484">
+      <c r="A484" s="2">
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -21943,7 +21944,7 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A485">
+      <c r="A485" s="2">
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -21963,7 +21964,7 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A486">
+      <c r="A486" s="2">
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -21983,7 +21984,7 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A487">
+      <c r="A487" s="2">
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -22003,7 +22004,7 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A488">
+      <c r="A488" s="2">
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -22023,7 +22024,7 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A489">
+      <c r="A489" s="2">
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
@@ -22043,7 +22044,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A490">
+      <c r="A490" s="2">
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -22063,7 +22064,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A491">
+      <c r="A491" s="2">
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -22083,7 +22084,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A492">
+      <c r="A492" s="2">
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -22103,7 +22104,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A493">
+      <c r="A493" s="2">
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -22123,7 +22124,7 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A494">
+      <c r="A494" s="2">
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -22143,7 +22144,7 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A495">
+      <c r="A495" s="2">
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -22163,7 +22164,7 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A496">
+      <c r="A496" s="2">
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
@@ -22183,7 +22184,7 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A497">
+      <c r="A497" s="2">
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
@@ -22203,7 +22204,7 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A498">
+      <c r="A498" s="2">
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -22223,7 +22224,7 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A499">
+      <c r="A499" s="2">
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
@@ -22243,7 +22244,7 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A500">
+      <c r="A500" s="2">
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -22263,7 +22264,7 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A501">
+      <c r="A501" s="2">
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
@@ -22283,7 +22284,7 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A502">
+      <c r="A502" s="2">
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
@@ -22303,7 +22304,7 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A503">
+      <c r="A503" s="2">
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
@@ -22323,7 +22324,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A504">
+      <c r="A504" s="2">
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
@@ -22343,7 +22344,7 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A505">
+      <c r="A505" s="2">
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -22363,7 +22364,7 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A506">
+      <c r="A506" s="2">
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
@@ -22383,7 +22384,7 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A507">
+      <c r="A507" s="2">
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
@@ -22403,7 +22404,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A508">
+      <c r="A508" s="2">
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
@@ -22423,7 +22424,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A509">
+      <c r="A509" s="2">
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -22443,7 +22444,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A510">
+      <c r="A510" s="2">
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -22463,7 +22464,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A511">
+      <c r="A511" s="2">
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
@@ -22483,7 +22484,7 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A512">
+      <c r="A512" s="2">
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -22503,7 +22504,7 @@
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A513">
+      <c r="A513" s="2">
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
@@ -22523,7 +22524,7 @@
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A514">
+      <c r="A514" s="2">
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -22543,7 +22544,7 @@
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A515">
+      <c r="A515" s="2">
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -22563,7 +22564,7 @@
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A516">
+      <c r="A516" s="2">
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -22583,7 +22584,7 @@
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A517">
+      <c r="A517" s="2">
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -22603,7 +22604,7 @@
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A518">
+      <c r="A518" s="2">
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
@@ -22623,7 +22624,7 @@
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A519">
+      <c r="A519" s="2">
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -22643,7 +22644,7 @@
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A520">
+      <c r="A520" s="2">
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
@@ -22663,7 +22664,7 @@
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A521">
+      <c r="A521" s="2">
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -22683,7 +22684,7 @@
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A522">
+      <c r="A522" s="2">
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -22703,7 +22704,7 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A523">
+      <c r="A523" s="2">
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -22723,7 +22724,7 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A524">
+      <c r="A524" s="2">
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -22743,7 +22744,7 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A525">
+      <c r="A525" s="2">
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -22763,7 +22764,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A526">
+      <c r="A526" s="2">
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -22783,7 +22784,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A527">
+      <c r="A527" s="2">
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -22803,7 +22804,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A528">
+      <c r="A528" s="2">
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -22823,7 +22824,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A529">
+      <c r="A529" s="2">
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -22843,7 +22844,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A530">
+      <c r="A530" s="2">
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -22863,7 +22864,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A531">
+      <c r="A531" s="2">
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -22883,7 +22884,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A532">
+      <c r="A532" s="2">
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -22903,7 +22904,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A533">
+      <c r="A533" s="2">
         <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -22923,7 +22924,7 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A534">
+      <c r="A534" s="2">
         <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -22943,7 +22944,7 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A535">
+      <c r="A535" s="2">
         <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -22963,7 +22964,7 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A536">
+      <c r="A536" s="2">
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -22983,7 +22984,7 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A537">
+      <c r="A537" s="2">
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -23003,7 +23004,7 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A538">
+      <c r="A538" s="2">
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -23023,7 +23024,7 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A539">
+      <c r="A539" s="2">
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -23043,7 +23044,7 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A540">
+      <c r="A540" s="2">
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -23063,7 +23064,7 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A541">
+      <c r="A541" s="2">
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -23083,7 +23084,7 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A542">
+      <c r="A542" s="2">
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -23103,7 +23104,7 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A543">
+      <c r="A543" s="2">
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -23123,7 +23124,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A544">
+      <c r="A544" s="2">
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
@@ -23143,7 +23144,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A545">
+      <c r="A545" s="2">
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -23163,7 +23164,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A546">
+      <c r="A546" s="2">
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -23183,7 +23184,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A547">
+      <c r="A547" s="2">
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -23203,7 +23204,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A548">
+      <c r="A548" s="2">
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -23223,7 +23224,7 @@
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A549">
+      <c r="A549" s="2">
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -23243,7 +23244,7 @@
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A550">
+      <c r="A550" s="2">
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -23263,7 +23264,7 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A551">
+      <c r="A551" s="2">
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -23283,7 +23284,7 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A552">
+      <c r="A552" s="2">
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -23303,7 +23304,7 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A553">
+      <c r="A553" s="2">
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -23323,7 +23324,7 @@
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A554">
+      <c r="A554" s="2">
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -23343,7 +23344,7 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A555">
+      <c r="A555" s="2">
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -23363,7 +23364,7 @@
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A556">
+      <c r="A556" s="2">
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -23383,7 +23384,7 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A557">
+      <c r="A557" s="2">
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -23403,7 +23404,7 @@
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A558">
+      <c r="A558" s="2">
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -23423,7 +23424,7 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A559">
+      <c r="A559" s="2">
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -23443,7 +23444,7 @@
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A560">
+      <c r="A560" s="2">
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
@@ -23463,7 +23464,7 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A561">
+      <c r="A561" s="2">
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
@@ -23483,7 +23484,7 @@
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A562">
+      <c r="A562" s="2">
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
@@ -23503,7 +23504,7 @@
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A563">
+      <c r="A563" s="2">
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
@@ -23523,7 +23524,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A564">
+      <c r="A564" s="2">
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
@@ -23543,7 +23544,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A565">
+      <c r="A565" s="2">
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
@@ -23563,7 +23564,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A566">
+      <c r="A566" s="2">
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
@@ -23583,7 +23584,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A567">
+      <c r="A567" s="2">
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
@@ -23603,7 +23604,7 @@
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A568">
+      <c r="A568" s="2">
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
@@ -23623,7 +23624,7 @@
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A569">
+      <c r="A569" s="2">
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
@@ -23643,7 +23644,7 @@
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A570">
+      <c r="A570" s="2">
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
@@ -23663,7 +23664,7 @@
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A571">
+      <c r="A571" s="2">
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
@@ -23683,7 +23684,7 @@
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A572">
+      <c r="A572" s="2">
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
@@ -23703,7 +23704,7 @@
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A573">
+      <c r="A573" s="2">
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
@@ -23723,7 +23724,7 @@
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A574">
+      <c r="A574" s="2">
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
@@ -23743,7 +23744,7 @@
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A575">
+      <c r="A575" s="2">
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
@@ -23763,7 +23764,7 @@
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A576">
+      <c r="A576" s="2">
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
@@ -23783,7 +23784,7 @@
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A577">
+      <c r="A577" s="2">
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
@@ -23803,7 +23804,7 @@
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A578">
+      <c r="A578" s="2">
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
@@ -23823,7 +23824,7 @@
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A579">
+      <c r="A579" s="2">
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
@@ -23843,7 +23844,7 @@
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A580">
+      <c r="A580" s="2">
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
@@ -23863,7 +23864,7 @@
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A581">
+      <c r="A581" s="2">
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
@@ -23883,7 +23884,7 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A582">
+      <c r="A582" s="2">
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
@@ -23903,7 +23904,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A583">
+      <c r="A583" s="2">
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
@@ -23923,7 +23924,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A584">
+      <c r="A584" s="2">
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
@@ -23943,7 +23944,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A585">
+      <c r="A585" s="2">
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
@@ -23963,7 +23964,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A586">
+      <c r="A586" s="2">
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
@@ -23983,7 +23984,7 @@
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A587">
+      <c r="A587" s="2">
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
@@ -24003,7 +24004,7 @@
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A588">
+      <c r="A588" s="2">
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
@@ -24023,7 +24024,7 @@
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A589">
+      <c r="A589" s="2">
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -24043,7 +24044,7 @@
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A590">
+      <c r="A590" s="2">
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -24063,7 +24064,7 @@
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A591">
+      <c r="A591" s="2">
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
@@ -24083,7 +24084,7 @@
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A592">
+      <c r="A592" s="2">
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
@@ -24103,7 +24104,7 @@
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A593">
+      <c r="A593" s="2">
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
@@ -24123,7 +24124,7 @@
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A594">
+      <c r="A594" s="2">
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
@@ -24143,7 +24144,7 @@
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A595">
+      <c r="A595" s="2">
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
@@ -24163,7 +24164,7 @@
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A596">
+      <c r="A596" s="2">
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
@@ -24183,7 +24184,7 @@
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A597">
+      <c r="A597" s="2">
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
@@ -24203,7 +24204,7 @@
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A598">
+      <c r="A598" s="2">
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
@@ -24223,7 +24224,7 @@
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A599">
+      <c r="A599" s="2">
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
@@ -24243,7 +24244,7 @@
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A600">
+      <c r="A600" s="2">
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
@@ -24263,7 +24264,7 @@
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A601">
+      <c r="A601" s="2">
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
@@ -24283,7 +24284,7 @@
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A602">
+      <c r="A602" s="2">
         <v>601</v>
       </c>
       <c r="B602" s="1" t="s">
@@ -24303,7 +24304,7 @@
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A603">
+      <c r="A603" s="2">
         <v>602</v>
       </c>
       <c r="B603" s="1" t="s">
@@ -24323,7 +24324,7 @@
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A604">
+      <c r="A604" s="2">
         <v>603</v>
       </c>
       <c r="B604" s="1" t="s">
@@ -24343,7 +24344,7 @@
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A605">
+      <c r="A605" s="2">
         <v>604</v>
       </c>
       <c r="B605" s="1" t="s">
@@ -24363,7 +24364,7 @@
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A606">
+      <c r="A606" s="2">
         <v>605</v>
       </c>
       <c r="B606" s="1" t="s">
@@ -24383,7 +24384,7 @@
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A607">
+      <c r="A607" s="2">
         <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
@@ -24403,7 +24404,7 @@
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A608">
+      <c r="A608" s="2">
         <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
@@ -24423,7 +24424,7 @@
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A609">
+      <c r="A609" s="2">
         <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
@@ -24443,7 +24444,7 @@
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A610">
+      <c r="A610" s="2">
         <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
@@ -24463,7 +24464,7 @@
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A611">
+      <c r="A611" s="2">
         <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
@@ -24483,7 +24484,7 @@
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A612">
+      <c r="A612" s="2">
         <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
@@ -24503,7 +24504,7 @@
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A613">
+      <c r="A613" s="2">
         <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
@@ -24523,7 +24524,7 @@
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A614">
+      <c r="A614" s="2">
         <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
@@ -24543,7 +24544,7 @@
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A615">
+      <c r="A615" s="2">
         <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
@@ -24563,7 +24564,7 @@
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A616">
+      <c r="A616" s="2">
         <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
@@ -24583,7 +24584,7 @@
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A617">
+      <c r="A617" s="2">
         <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
@@ -24603,7 +24604,7 @@
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A618">
+      <c r="A618" s="2">
         <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
@@ -24623,7 +24624,7 @@
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A619">
+      <c r="A619" s="2">
         <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
@@ -24643,7 +24644,7 @@
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A620">
+      <c r="A620" s="2">
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
@@ -24663,7 +24664,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A621">
+      <c r="A621" s="2">
         <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
@@ -24683,7 +24684,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A622">
+      <c r="A622" s="2">
         <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
@@ -24703,7 +24704,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A623">
+      <c r="A623" s="2">
         <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
@@ -24723,7 +24724,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A624">
+      <c r="A624" s="2">
         <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
@@ -24743,7 +24744,7 @@
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A625">
+      <c r="A625" s="2">
         <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
@@ -24763,7 +24764,7 @@
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A626">
+      <c r="A626" s="2">
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
@@ -24783,7 +24784,7 @@
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A627">
+      <c r="A627" s="2">
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
@@ -24803,7 +24804,7 @@
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A628">
+      <c r="A628" s="2">
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
@@ -24823,7 +24824,7 @@
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A629">
+      <c r="A629" s="2">
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
@@ -24843,7 +24844,7 @@
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A630">
+      <c r="A630" s="2">
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
@@ -24863,7 +24864,7 @@
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A631">
+      <c r="A631" s="2">
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
@@ -24883,7 +24884,7 @@
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A632">
+      <c r="A632" s="2">
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
@@ -24903,7 +24904,7 @@
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A633">
+      <c r="A633" s="2">
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
@@ -24923,7 +24924,7 @@
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A634">
+      <c r="A634" s="2">
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
@@ -24943,7 +24944,7 @@
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A635">
+      <c r="A635" s="2">
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
@@ -24963,7 +24964,7 @@
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A636">
+      <c r="A636" s="2">
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
@@ -24983,7 +24984,7 @@
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A637">
+      <c r="A637" s="2">
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
@@ -25003,7 +25004,7 @@
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A638">
+      <c r="A638" s="2">
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
@@ -25023,7 +25024,7 @@
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A639">
+      <c r="A639" s="2">
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
@@ -25043,7 +25044,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A640">
+      <c r="A640" s="2">
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
@@ -25063,7 +25064,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A641">
+      <c r="A641" s="2">
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
@@ -25083,7 +25084,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A642">
+      <c r="A642" s="2">
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
@@ -25103,7 +25104,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A643">
+      <c r="A643" s="2">
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
@@ -25123,7 +25124,7 @@
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A644">
+      <c r="A644" s="2">
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
@@ -25143,7 +25144,7 @@
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A645">
+      <c r="A645" s="2">
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
@@ -25163,7 +25164,7 @@
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A646">
+      <c r="A646" s="2">
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
@@ -25183,7 +25184,7 @@
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A647">
+      <c r="A647" s="2">
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
@@ -25203,7 +25204,7 @@
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A648">
+      <c r="A648" s="2">
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
@@ -25223,7 +25224,7 @@
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A649">
+      <c r="A649" s="2">
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
@@ -25243,7 +25244,7 @@
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A650">
+      <c r="A650" s="2">
         <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
@@ -25263,7 +25264,7 @@
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A651">
+      <c r="A651" s="2">
         <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
@@ -25283,7 +25284,7 @@
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A652">
+      <c r="A652" s="2">
         <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
@@ -25303,7 +25304,7 @@
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A653">
+      <c r="A653" s="2">
         <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
@@ -25323,7 +25324,7 @@
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A654">
+      <c r="A654" s="2">
         <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
@@ -25343,7 +25344,7 @@
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A655">
+      <c r="A655" s="2">
         <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
@@ -25363,7 +25364,7 @@
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A656">
+      <c r="A656" s="2">
         <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
@@ -25383,7 +25384,7 @@
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A657">
+      <c r="A657" s="2">
         <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
@@ -25403,7 +25404,7 @@
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A658">
+      <c r="A658" s="2">
         <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
@@ -25423,7 +25424,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A659">
+      <c r="A659" s="2">
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
@@ -25443,7 +25444,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A660">
+      <c r="A660" s="2">
         <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
@@ -25463,7 +25464,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A661">
+      <c r="A661" s="2">
         <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
@@ -25483,7 +25484,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A662">
+      <c r="A662" s="2">
         <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
@@ -25503,7 +25504,7 @@
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A663">
+      <c r="A663" s="2">
         <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
@@ -25523,7 +25524,7 @@
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A664">
+      <c r="A664" s="2">
         <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
@@ -25543,7 +25544,7 @@
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A665">
+      <c r="A665" s="2">
         <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
@@ -25563,7 +25564,7 @@
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A666">
+      <c r="A666" s="2">
         <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
@@ -25583,7 +25584,7 @@
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A667">
+      <c r="A667" s="2">
         <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
@@ -25603,7 +25604,7 @@
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A668">
+      <c r="A668" s="2">
         <v>667</v>
       </c>
       <c r="B668" s="1" t="s">
@@ -25623,7 +25624,7 @@
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A669">
+      <c r="A669" s="2">
         <v>668</v>
       </c>
       <c r="B669" s="1" t="s">
@@ -25643,7 +25644,7 @@
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A670">
+      <c r="A670" s="2">
         <v>669</v>
       </c>
       <c r="B670" s="1" t="s">
@@ -25663,7 +25664,7 @@
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A671">
+      <c r="A671" s="2">
         <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
@@ -25683,7 +25684,7 @@
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A672">
+      <c r="A672" s="2">
         <v>671</v>
       </c>
       <c r="B672" s="1" t="s">
@@ -25703,7 +25704,7 @@
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A673">
+      <c r="A673" s="2">
         <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
@@ -25723,7 +25724,7 @@
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A674">
+      <c r="A674" s="2">
         <v>673</v>
       </c>
       <c r="B674" s="1" t="s">
@@ -25743,7 +25744,7 @@
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A675">
+      <c r="A675" s="2">
         <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
@@ -25763,7 +25764,7 @@
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A676">
+      <c r="A676" s="2">
         <v>675</v>
       </c>
       <c r="B676" s="1" t="s">
@@ -25783,7 +25784,7 @@
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A677">
+      <c r="A677" s="2">
         <v>676</v>
       </c>
       <c r="B677" s="1" t="s">
@@ -25803,7 +25804,7 @@
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A678">
+      <c r="A678" s="2">
         <v>677</v>
       </c>
       <c r="B678" s="1" t="s">
@@ -25823,7 +25824,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A679">
+      <c r="A679" s="2">
         <v>678</v>
       </c>
       <c r="B679" s="1" t="s">
@@ -25843,7 +25844,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A680">
+      <c r="A680" s="2">
         <v>679</v>
       </c>
       <c r="B680" s="1" t="s">
@@ -25863,7 +25864,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A681">
+      <c r="A681" s="2">
         <v>680</v>
       </c>
       <c r="B681" s="1" t="s">
@@ -25883,7 +25884,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A682">
+      <c r="A682" s="2">
         <v>681</v>
       </c>
       <c r="B682" s="1" t="s">
@@ -25903,7 +25904,7 @@
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A683">
+      <c r="A683" s="2">
         <v>682</v>
       </c>
       <c r="B683" s="1" t="s">
@@ -25923,7 +25924,7 @@
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A684">
+      <c r="A684" s="2">
         <v>683</v>
       </c>
       <c r="B684" s="1" t="s">
@@ -25943,7 +25944,7 @@
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A685">
+      <c r="A685" s="2">
         <v>684</v>
       </c>
       <c r="B685" s="1" t="s">
@@ -25963,7 +25964,7 @@
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A686">
+      <c r="A686" s="2">
         <v>685</v>
       </c>
       <c r="B686" s="1" t="s">
@@ -25983,7 +25984,7 @@
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A687">
+      <c r="A687" s="2">
         <v>686</v>
       </c>
       <c r="B687" s="1" t="s">
@@ -26003,7 +26004,7 @@
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A688">
+      <c r="A688" s="2">
         <v>687</v>
       </c>
       <c r="B688" s="1" t="s">
@@ -26023,7 +26024,7 @@
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A689">
+      <c r="A689" s="2">
         <v>688</v>
       </c>
       <c r="B689" s="1" t="s">
@@ -26043,7 +26044,7 @@
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A690">
+      <c r="A690" s="2">
         <v>689</v>
       </c>
       <c r="B690" s="1" t="s">
@@ -26063,7 +26064,7 @@
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A691">
+      <c r="A691" s="2">
         <v>690</v>
       </c>
       <c r="B691" s="1" t="s">
@@ -26083,7 +26084,7 @@
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A692">
+      <c r="A692" s="2">
         <v>691</v>
       </c>
       <c r="B692" s="1" t="s">
@@ -26103,7 +26104,7 @@
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A693">
+      <c r="A693" s="2">
         <v>692</v>
       </c>
       <c r="B693" s="1" t="s">
@@ -26123,7 +26124,7 @@
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A694">
+      <c r="A694" s="2">
         <v>693</v>
       </c>
       <c r="B694" s="1" t="s">
@@ -26143,7 +26144,7 @@
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A695">
+      <c r="A695" s="2">
         <v>694</v>
       </c>
       <c r="B695" s="1" t="s">
@@ -26163,7 +26164,7 @@
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A696">
+      <c r="A696" s="2">
         <v>695</v>
       </c>
       <c r="B696" s="1" t="s">
@@ -26183,7 +26184,7 @@
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A697">
+      <c r="A697" s="2">
         <v>696</v>
       </c>
       <c r="B697" s="1" t="s">
@@ -26203,7 +26204,7 @@
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A698">
+      <c r="A698" s="2">
         <v>697</v>
       </c>
       <c r="B698" s="1" t="s">
@@ -26223,7 +26224,7 @@
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A699">
+      <c r="A699" s="2">
         <v>698</v>
       </c>
       <c r="B699" s="1" t="s">
@@ -26243,7 +26244,7 @@
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A700">
+      <c r="A700" s="2">
         <v>699</v>
       </c>
       <c r="B700" s="1" t="s">
@@ -26263,7 +26264,7 @@
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A701">
+      <c r="A701" s="2">
         <v>700</v>
       </c>
       <c r="B701" s="1" t="s">
@@ -26283,7 +26284,7 @@
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A702">
+      <c r="A702" s="2">
         <v>701</v>
       </c>
       <c r="B702" s="1" t="s">
@@ -26303,7 +26304,7 @@
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A703">
+      <c r="A703" s="2">
         <v>702</v>
       </c>
       <c r="B703" s="1" t="s">
@@ -26323,7 +26324,7 @@
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A704">
+      <c r="A704" s="2">
         <v>703</v>
       </c>
       <c r="B704" s="1" t="s">
@@ -26343,7 +26344,7 @@
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A705">
+      <c r="A705" s="2">
         <v>704</v>
       </c>
       <c r="B705" s="1" t="s">
@@ -26363,7 +26364,7 @@
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A706">
+      <c r="A706" s="2">
         <v>705</v>
       </c>
       <c r="B706" s="1" t="s">
@@ -26383,7 +26384,7 @@
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A707">
+      <c r="A707" s="2">
         <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
@@ -26403,7 +26404,7 @@
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A708">
+      <c r="A708" s="2">
         <v>707</v>
       </c>
       <c r="B708" s="1" t="s">
@@ -26423,7 +26424,7 @@
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A709">
+      <c r="A709" s="2">
         <v>708</v>
       </c>
       <c r="B709" s="1" t="s">
@@ -26443,7 +26444,7 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A710">
+      <c r="A710" s="2">
         <v>709</v>
       </c>
       <c r="B710" s="1" t="s">
@@ -26463,7 +26464,7 @@
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A711">
+      <c r="A711" s="2">
         <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
@@ -26483,7 +26484,7 @@
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A712">
+      <c r="A712" s="2">
         <v>711</v>
       </c>
       <c r="B712" s="1" t="s">
@@ -26503,7 +26504,7 @@
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A713">
+      <c r="A713" s="2">
         <v>712</v>
       </c>
       <c r="B713" s="1" t="s">
@@ -26523,7 +26524,7 @@
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A714">
+      <c r="A714" s="2">
         <v>713</v>
       </c>
       <c r="B714" s="1" t="s">
@@ -26543,7 +26544,7 @@
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A715">
+      <c r="A715" s="2">
         <v>714</v>
       </c>
       <c r="B715" s="1" t="s">
@@ -26563,7 +26564,7 @@
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A716">
+      <c r="A716" s="2">
         <v>715</v>
       </c>
       <c r="B716" s="1" t="s">
@@ -26583,7 +26584,7 @@
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A717">
+      <c r="A717" s="2">
         <v>716</v>
       </c>
       <c r="B717" s="1" t="s">
@@ -26603,7 +26604,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A718">
+      <c r="A718" s="2">
         <v>717</v>
       </c>
       <c r="B718" s="1" t="s">
@@ -26623,7 +26624,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A719">
+      <c r="A719" s="2">
         <v>718</v>
       </c>
       <c r="B719" s="1" t="s">
@@ -26643,7 +26644,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A720">
+      <c r="A720" s="2">
         <v>719</v>
       </c>
       <c r="B720" s="1" t="s">
@@ -26663,7 +26664,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A721">
+      <c r="A721" s="2">
         <v>720</v>
       </c>
       <c r="B721" s="1" t="s">
@@ -26683,7 +26684,7 @@
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A722">
+      <c r="A722" s="2">
         <v>721</v>
       </c>
       <c r="B722" s="1" t="s">
@@ -26703,7 +26704,7 @@
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A723">
+      <c r="A723" s="2">
         <v>722</v>
       </c>
       <c r="B723" s="1" t="s">
@@ -26723,7 +26724,7 @@
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A724">
+      <c r="A724" s="2">
         <v>723</v>
       </c>
       <c r="B724" s="1" t="s">
@@ -26743,7 +26744,7 @@
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A725">
+      <c r="A725" s="2">
         <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
@@ -26763,7 +26764,7 @@
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A726">
+      <c r="A726" s="2">
         <v>725</v>
       </c>
       <c r="B726" s="1" t="s">
@@ -26783,7 +26784,7 @@
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A727">
+      <c r="A727" s="2">
         <v>726</v>
       </c>
       <c r="B727" s="1" t="s">
@@ -26803,7 +26804,7 @@
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A728">
+      <c r="A728" s="2">
         <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
@@ -26823,7 +26824,7 @@
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A729">
+      <c r="A729" s="2">
         <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
@@ -26843,7 +26844,7 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A730">
+      <c r="A730" s="2">
         <v>729</v>
       </c>
       <c r="B730" s="1" t="s">
@@ -26863,7 +26864,7 @@
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A731">
+      <c r="A731" s="2">
         <v>730</v>
       </c>
       <c r="B731" s="1" t="s">
@@ -26883,7 +26884,7 @@
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A732">
+      <c r="A732" s="2">
         <v>731</v>
       </c>
       <c r="B732" s="1" t="s">
@@ -26903,7 +26904,7 @@
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A733">
+      <c r="A733" s="2">
         <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
@@ -26923,7 +26924,7 @@
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A734">
+      <c r="A734" s="2">
         <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
@@ -26943,7 +26944,7 @@
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A735">
+      <c r="A735" s="2">
         <v>734</v>
       </c>
       <c r="B735" s="1" t="s">
@@ -26963,7 +26964,7 @@
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A736">
+      <c r="A736" s="2">
         <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
@@ -26983,7 +26984,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A737">
+      <c r="A737" s="2">
         <v>736</v>
       </c>
       <c r="B737" s="1" t="s">
@@ -27003,7 +27004,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A738">
+      <c r="A738" s="2">
         <v>737</v>
       </c>
       <c r="B738" s="1" t="s">
@@ -27023,7 +27024,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A739">
+      <c r="A739" s="2">
         <v>738</v>
       </c>
       <c r="B739" s="1" t="s">
@@ -27043,7 +27044,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A740">
+      <c r="A740" s="2">
         <v>739</v>
       </c>
       <c r="B740" s="1" t="s">
@@ -27063,7 +27064,7 @@
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A741">
+      <c r="A741" s="2">
         <v>740</v>
       </c>
       <c r="B741" s="1" t="s">
@@ -27083,7 +27084,7 @@
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A742">
+      <c r="A742" s="2">
         <v>741</v>
       </c>
       <c r="B742" s="1" t="s">
@@ -27103,7 +27104,7 @@
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A743">
+      <c r="A743" s="2">
         <v>742</v>
       </c>
       <c r="B743" s="1" t="s">
@@ -27123,7 +27124,7 @@
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A744">
+      <c r="A744" s="2">
         <v>743</v>
       </c>
       <c r="B744" s="1" t="s">
@@ -27143,7 +27144,7 @@
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A745">
+      <c r="A745" s="2">
         <v>744</v>
       </c>
       <c r="B745" s="1" t="s">
@@ -27163,7 +27164,7 @@
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A746">
+      <c r="A746" s="2">
         <v>745</v>
       </c>
       <c r="B746" s="1" t="s">
@@ -27183,7 +27184,7 @@
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A747">
+      <c r="A747" s="2">
         <v>746</v>
       </c>
       <c r="B747" s="1" t="s">
@@ -27203,7 +27204,7 @@
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A748">
+      <c r="A748" s="2">
         <v>747</v>
       </c>
       <c r="B748" s="1" t="s">
@@ -27223,7 +27224,7 @@
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A749">
+      <c r="A749" s="2">
         <v>748</v>
       </c>
       <c r="B749" s="1" t="s">
@@ -27243,7 +27244,7 @@
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A750">
+      <c r="A750" s="2">
         <v>749</v>
       </c>
       <c r="B750" s="1" t="s">
@@ -27263,7 +27264,7 @@
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A751">
+      <c r="A751" s="2">
         <v>750</v>
       </c>
       <c r="B751" s="1" t="s">
@@ -27283,7 +27284,7 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A752">
+      <c r="A752" s="2">
         <v>751</v>
       </c>
       <c r="B752" s="1" t="s">
@@ -27303,7 +27304,7 @@
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A753">
+      <c r="A753" s="2">
         <v>752</v>
       </c>
       <c r="B753" s="1" t="s">
@@ -27323,7 +27324,7 @@
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A754">
+      <c r="A754" s="2">
         <v>753</v>
       </c>
       <c r="B754" s="1" t="s">
@@ -27343,7 +27344,7 @@
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A755">
+      <c r="A755" s="2">
         <v>754</v>
       </c>
       <c r="B755" s="1" t="s">
@@ -27363,7 +27364,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A756">
+      <c r="A756" s="2">
         <v>755</v>
       </c>
       <c r="B756" s="1" t="s">
@@ -27383,7 +27384,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A757">
+      <c r="A757" s="2">
         <v>756</v>
       </c>
       <c r="B757" s="1" t="s">
@@ -27403,7 +27404,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A758">
+      <c r="A758" s="2">
         <v>757</v>
       </c>
       <c r="B758" s="1" t="s">
@@ -27423,7 +27424,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A759">
+      <c r="A759" s="2">
         <v>758</v>
       </c>
       <c r="B759" s="1" t="s">
@@ -27443,7 +27444,7 @@
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A760">
+      <c r="A760" s="2">
         <v>759</v>
       </c>
       <c r="B760" s="1" t="s">
@@ -27463,7 +27464,7 @@
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A761">
+      <c r="A761" s="2">
         <v>760</v>
       </c>
       <c r="B761" s="1" t="s">
@@ -27483,7 +27484,7 @@
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A762">
+      <c r="A762" s="2">
         <v>761</v>
       </c>
       <c r="B762" s="1" t="s">
@@ -27503,7 +27504,7 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A763">
+      <c r="A763" s="2">
         <v>762</v>
       </c>
       <c r="B763" s="1" t="s">
@@ -27523,7 +27524,7 @@
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A764">
+      <c r="A764" s="2">
         <v>763</v>
       </c>
       <c r="B764" s="1" t="s">
@@ -27543,7 +27544,7 @@
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A765">
+      <c r="A765" s="2">
         <v>764</v>
       </c>
       <c r="B765" s="1" t="s">
@@ -27563,7 +27564,7 @@
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A766">
+      <c r="A766" s="2">
         <v>765</v>
       </c>
       <c r="B766" s="1" t="s">
@@ -27583,7 +27584,7 @@
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A767">
+      <c r="A767" s="2">
         <v>766</v>
       </c>
       <c r="B767" s="1" t="s">
@@ -27603,7 +27604,7 @@
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A768">
+      <c r="A768" s="2">
         <v>767</v>
       </c>
       <c r="B768" s="1" t="s">
@@ -27623,7 +27624,7 @@
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A769">
+      <c r="A769" s="2">
         <v>768</v>
       </c>
       <c r="B769" s="1" t="s">
@@ -27643,7 +27644,7 @@
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A770">
+      <c r="A770" s="2">
         <v>769</v>
       </c>
       <c r="B770" s="1" t="s">
@@ -27663,7 +27664,7 @@
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A771">
+      <c r="A771" s="2">
         <v>770</v>
       </c>
       <c r="B771" s="1" t="s">
@@ -27683,7 +27684,7 @@
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A772">
+      <c r="A772" s="2">
         <v>771</v>
       </c>
       <c r="B772" s="1" t="s">
@@ -27703,7 +27704,7 @@
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A773">
+      <c r="A773" s="2">
         <v>772</v>
       </c>
       <c r="B773" s="1" t="s">
@@ -27723,7 +27724,7 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A774">
+      <c r="A774" s="2">
         <v>773</v>
       </c>
       <c r="B774" s="1" t="s">
@@ -27743,7 +27744,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A775">
+      <c r="A775" s="2">
         <v>774</v>
       </c>
       <c r="B775" s="1" t="s">
@@ -27763,7 +27764,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A776">
+      <c r="A776" s="2">
         <v>775</v>
       </c>
       <c r="B776" s="1" t="s">
@@ -27783,7 +27784,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A777">
+      <c r="A777" s="2">
         <v>776</v>
       </c>
       <c r="B777" s="1" t="s">
@@ -27803,7 +27804,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A778">
+      <c r="A778" s="2">
         <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
@@ -27823,7 +27824,7 @@
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A779">
+      <c r="A779" s="2">
         <v>778</v>
       </c>
       <c r="B779" s="1" t="s">
@@ -27843,7 +27844,7 @@
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A780">
+      <c r="A780" s="2">
         <v>779</v>
       </c>
       <c r="B780" s="1" t="s">
@@ -27863,7 +27864,7 @@
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A781">
+      <c r="A781" s="2">
         <v>780</v>
       </c>
       <c r="B781" s="1" t="s">
@@ -27883,7 +27884,7 @@
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A782">
+      <c r="A782" s="2">
         <v>781</v>
       </c>
       <c r="B782" s="1" t="s">
@@ -27903,7 +27904,7 @@
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A783">
+      <c r="A783" s="2">
         <v>782</v>
       </c>
       <c r="B783" s="1" t="s">
@@ -27923,7 +27924,7 @@
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A784">
+      <c r="A784" s="2">
         <v>783</v>
       </c>
       <c r="B784" s="1" t="s">
@@ -27943,7 +27944,7 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A785">
+      <c r="A785" s="2">
         <v>784</v>
       </c>
       <c r="B785" s="1" t="s">
@@ -27963,7 +27964,7 @@
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A786">
+      <c r="A786" s="2">
         <v>785</v>
       </c>
       <c r="B786" s="1" t="s">
@@ -27983,7 +27984,7 @@
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A787">
+      <c r="A787" s="2">
         <v>786</v>
       </c>
       <c r="B787" s="1" t="s">
@@ -28003,7 +28004,7 @@
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A788">
+      <c r="A788" s="2">
         <v>787</v>
       </c>
       <c r="B788" s="1" t="s">
@@ -28023,7 +28024,7 @@
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A789">
+      <c r="A789" s="2">
         <v>788</v>
       </c>
       <c r="B789" s="1" t="s">
@@ -28043,7 +28044,7 @@
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A790">
+      <c r="A790" s="2">
         <v>789</v>
       </c>
       <c r="B790" s="1" t="s">
@@ -28063,7 +28064,7 @@
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A791">
+      <c r="A791" s="2">
         <v>790</v>
       </c>
       <c r="B791" s="1" t="s">
@@ -28083,7 +28084,7 @@
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A792">
+      <c r="A792" s="2">
         <v>791</v>
       </c>
       <c r="B792" s="1" t="s">
@@ -28103,7 +28104,7 @@
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A793">
+      <c r="A793" s="2">
         <v>792</v>
       </c>
       <c r="B793" s="1" t="s">
@@ -28123,7 +28124,7 @@
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A794">
+      <c r="A794" s="2">
         <v>793</v>
       </c>
       <c r="B794" s="1" t="s">
@@ -28143,7 +28144,7 @@
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A795">
+      <c r="A795" s="2">
         <v>794</v>
       </c>
       <c r="B795" s="1" t="s">
@@ -28163,7 +28164,7 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A796">
+      <c r="A796" s="2">
         <v>795</v>
       </c>
       <c r="B796" s="1" t="s">
@@ -28183,7 +28184,7 @@
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A797">
+      <c r="A797" s="2">
         <v>796</v>
       </c>
       <c r="B797" s="1" t="s">
@@ -28203,7 +28204,7 @@
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A798">
+      <c r="A798" s="2">
         <v>797</v>
       </c>
       <c r="B798" s="1" t="s">
@@ -28223,7 +28224,7 @@
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A799">
+      <c r="A799" s="2">
         <v>798</v>
       </c>
       <c r="B799" s="1" t="s">
@@ -28243,7 +28244,7 @@
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A800">
+      <c r="A800" s="2">
         <v>799</v>
       </c>
       <c r="B800" s="1" t="s">
@@ -28263,7 +28264,7 @@
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A801">
+      <c r="A801" s="2">
         <v>800</v>
       </c>
       <c r="B801" s="1" t="s">
@@ -28283,7 +28284,7 @@
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A802">
+      <c r="A802" s="2">
         <v>801</v>
       </c>
       <c r="B802" s="1" t="s">
@@ -28303,7 +28304,7 @@
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A803">
+      <c r="A803" s="2">
         <v>802</v>
       </c>
       <c r="B803" s="1" t="s">
@@ -28323,7 +28324,7 @@
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A804">
+      <c r="A804" s="2">
         <v>803</v>
       </c>
       <c r="B804" s="1" t="s">
@@ -28343,7 +28344,7 @@
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A805">
+      <c r="A805" s="2">
         <v>804</v>
       </c>
       <c r="B805" s="1" t="s">
@@ -28363,7 +28364,7 @@
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A806">
+      <c r="A806" s="2">
         <v>805</v>
       </c>
       <c r="B806" s="1" t="s">
@@ -28383,7 +28384,7 @@
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A807">
+      <c r="A807" s="2">
         <v>806</v>
       </c>
       <c r="B807" s="1" t="s">
@@ -28403,7 +28404,7 @@
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A808">
+      <c r="A808" s="2">
         <v>807</v>
       </c>
       <c r="B808" s="1" t="s">
@@ -28423,7 +28424,7 @@
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A809">
+      <c r="A809" s="2">
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
@@ -28443,7 +28444,7 @@
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A810">
+      <c r="A810" s="2">
         <v>809</v>
       </c>
       <c r="B810" s="1" t="s">
@@ -28463,7 +28464,7 @@
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A811">
+      <c r="A811" s="2">
         <v>810</v>
       </c>
       <c r="B811" s="1" t="s">
@@ -28483,7 +28484,7 @@
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A812">
+      <c r="A812" s="2">
         <v>811</v>
       </c>
       <c r="B812" s="1" t="s">
@@ -28503,7 +28504,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A813">
+      <c r="A813" s="2">
         <v>812</v>
       </c>
       <c r="B813" s="1" t="s">
@@ -28523,7 +28524,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A814">
+      <c r="A814" s="2">
         <v>813</v>
       </c>
       <c r="B814" s="1" t="s">
@@ -28543,7 +28544,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A815">
+      <c r="A815" s="2">
         <v>814</v>
       </c>
       <c r="B815" s="1" t="s">
@@ -28563,7 +28564,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A816">
+      <c r="A816" s="2">
         <v>815</v>
       </c>
       <c r="B816" s="1" t="s">
@@ -28583,7 +28584,7 @@
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A817">
+      <c r="A817" s="2">
         <v>816</v>
       </c>
       <c r="B817" s="1" t="s">
@@ -28603,7 +28604,7 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A818">
+      <c r="A818" s="2">
         <v>817</v>
       </c>
       <c r="B818" s="1" t="s">
@@ -28623,7 +28624,7 @@
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A819">
+      <c r="A819" s="2">
         <v>818</v>
       </c>
       <c r="B819" s="1" t="s">
@@ -28643,7 +28644,7 @@
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A820">
+      <c r="A820" s="2">
         <v>819</v>
       </c>
       <c r="B820" s="1" t="s">
@@ -28663,7 +28664,7 @@
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A821">
+      <c r="A821" s="2">
         <v>820</v>
       </c>
       <c r="B821" s="1" t="s">
@@ -28683,7 +28684,7 @@
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A822">
+      <c r="A822" s="2">
         <v>821</v>
       </c>
       <c r="B822" s="1" t="s">
@@ -28703,7 +28704,7 @@
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A823">
+      <c r="A823" s="2">
         <v>822</v>
       </c>
       <c r="B823" s="1" t="s">
@@ -28723,7 +28724,7 @@
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A824">
+      <c r="A824" s="2">
         <v>823</v>
       </c>
       <c r="B824" s="1" t="s">
@@ -28743,7 +28744,7 @@
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A825">
+      <c r="A825" s="2">
         <v>824</v>
       </c>
       <c r="B825" s="1" t="s">
@@ -28763,7 +28764,7 @@
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A826">
+      <c r="A826" s="2">
         <v>825</v>
       </c>
       <c r="B826" s="1" t="s">
@@ -28783,7 +28784,7 @@
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A827">
+      <c r="A827" s="2">
         <v>826</v>
       </c>
       <c r="B827" s="1" t="s">
@@ -28803,7 +28804,7 @@
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A828">
+      <c r="A828" s="2">
         <v>827</v>
       </c>
       <c r="B828" s="1" t="s">
@@ -28823,7 +28824,7 @@
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A829">
+      <c r="A829" s="2">
         <v>828</v>
       </c>
       <c r="B829" s="1" t="s">
@@ -28843,7 +28844,7 @@
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A830">
+      <c r="A830" s="2">
         <v>829</v>
       </c>
       <c r="B830" s="1" t="s">
@@ -28863,7 +28864,7 @@
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A831">
+      <c r="A831" s="2">
         <v>830</v>
       </c>
       <c r="B831" s="1" t="s">
@@ -28883,7 +28884,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A832">
+      <c r="A832" s="2">
         <v>831</v>
       </c>
       <c r="B832" s="1" t="s">
@@ -28903,7 +28904,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A833">
+      <c r="A833" s="2">
         <v>832</v>
       </c>
       <c r="B833" s="1" t="s">
@@ -28923,7 +28924,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A834">
+      <c r="A834" s="2">
         <v>833</v>
       </c>
       <c r="B834" s="1" t="s">
@@ -28943,7 +28944,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A835">
+      <c r="A835" s="2">
         <v>834</v>
       </c>
       <c r="B835" s="1" t="s">
@@ -28963,7 +28964,7 @@
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A836">
+      <c r="A836" s="2">
         <v>835</v>
       </c>
       <c r="B836" s="1" t="s">
@@ -28983,7 +28984,7 @@
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A837">
+      <c r="A837" s="2">
         <v>836</v>
       </c>
       <c r="B837" s="1" t="s">
@@ -29003,7 +29004,7 @@
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A838">
+      <c r="A838" s="2">
         <v>837</v>
       </c>
       <c r="B838" s="1" t="s">
@@ -29023,7 +29024,7 @@
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A839">
+      <c r="A839" s="2">
         <v>838</v>
       </c>
       <c r="B839" s="1" t="s">
@@ -29043,7 +29044,7 @@
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A840">
+      <c r="A840" s="2">
         <v>839</v>
       </c>
       <c r="B840" s="1" t="s">
@@ -29063,7 +29064,7 @@
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A841">
+      <c r="A841" s="2">
         <v>840</v>
       </c>
       <c r="B841" s="1" t="s">
@@ -29083,7 +29084,7 @@
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A842">
+      <c r="A842" s="2">
         <v>841</v>
       </c>
       <c r="B842" s="1" t="s">
@@ -29103,7 +29104,7 @@
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A843">
+      <c r="A843" s="2">
         <v>842</v>
       </c>
       <c r="B843" s="1" t="s">
@@ -29123,7 +29124,7 @@
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A844">
+      <c r="A844" s="2">
         <v>843</v>
       </c>
       <c r="B844" s="1" t="s">
@@ -29143,7 +29144,7 @@
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A845">
+      <c r="A845" s="2">
         <v>844</v>
       </c>
       <c r="B845" s="1" t="s">
@@ -29163,7 +29164,7 @@
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A846">
+      <c r="A846" s="2">
         <v>845</v>
       </c>
       <c r="B846" s="1" t="s">
@@ -29183,7 +29184,7 @@
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A847">
+      <c r="A847" s="2">
         <v>846</v>
       </c>
       <c r="B847" s="1" t="s">
@@ -29203,7 +29204,7 @@
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A848">
+      <c r="A848" s="2">
         <v>847</v>
       </c>
       <c r="B848" s="1" t="s">
@@ -29223,7 +29224,7 @@
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A849">
+      <c r="A849" s="2">
         <v>848</v>
       </c>
       <c r="B849" s="1" t="s">
@@ -29243,7 +29244,7 @@
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A850">
+      <c r="A850" s="2">
         <v>849</v>
       </c>
       <c r="B850" s="1" t="s">
@@ -29263,7 +29264,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A851">
+      <c r="A851" s="2">
         <v>850</v>
       </c>
       <c r="B851" s="1" t="s">
@@ -29283,7 +29284,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A852">
+      <c r="A852" s="2">
         <v>851</v>
       </c>
       <c r="B852" s="1" t="s">
@@ -29303,7 +29304,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A853">
+      <c r="A853" s="2">
         <v>852</v>
       </c>
       <c r="B853" s="1" t="s">
@@ -29323,7 +29324,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A854">
+      <c r="A854" s="2">
         <v>853</v>
       </c>
       <c r="B854" s="1" t="s">
@@ -29343,7 +29344,7 @@
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A855">
+      <c r="A855" s="2">
         <v>854</v>
       </c>
       <c r="B855" s="1" t="s">
@@ -29363,7 +29364,7 @@
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A856">
+      <c r="A856" s="2">
         <v>855</v>
       </c>
       <c r="B856" s="1" t="s">
@@ -29383,7 +29384,7 @@
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A857">
+      <c r="A857" s="2">
         <v>856</v>
       </c>
       <c r="B857" s="1" t="s">
@@ -29403,7 +29404,7 @@
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A858">
+      <c r="A858" s="2">
         <v>857</v>
       </c>
       <c r="B858" s="1" t="s">
@@ -29423,7 +29424,7 @@
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A859">
+      <c r="A859" s="2">
         <v>858</v>
       </c>
       <c r="B859" s="1" t="s">
@@ -29443,7 +29444,7 @@
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A860">
+      <c r="A860" s="2">
         <v>859</v>
       </c>
       <c r="B860" s="1" t="s">
@@ -29463,7 +29464,7 @@
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A861">
+      <c r="A861" s="2">
         <v>860</v>
       </c>
       <c r="B861" s="1" t="s">
@@ -29483,7 +29484,7 @@
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A862">
+      <c r="A862" s="2">
         <v>861</v>
       </c>
       <c r="B862" s="1" t="s">
@@ -29503,7 +29504,7 @@
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A863">
+      <c r="A863" s="2">
         <v>862</v>
       </c>
       <c r="B863" s="1" t="s">
@@ -29523,7 +29524,7 @@
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A864">
+      <c r="A864" s="2">
         <v>863</v>
       </c>
       <c r="B864" s="1" t="s">
@@ -29543,7 +29544,7 @@
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A865">
+      <c r="A865" s="2">
         <v>864</v>
       </c>
       <c r="B865" s="1" t="s">
@@ -29563,7 +29564,7 @@
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A866">
+      <c r="A866" s="2">
         <v>865</v>
       </c>
       <c r="B866" s="1" t="s">
@@ -29583,7 +29584,7 @@
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A867">
+      <c r="A867" s="2">
         <v>866</v>
       </c>
       <c r="B867" s="1" t="s">
@@ -29603,7 +29604,7 @@
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A868">
+      <c r="A868" s="2">
         <v>867</v>
       </c>
       <c r="B868" s="1" t="s">
@@ -29623,7 +29624,7 @@
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A869">
+      <c r="A869" s="2">
         <v>868</v>
       </c>
       <c r="B869" s="1" t="s">
@@ -29643,7 +29644,7 @@
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A870">
+      <c r="A870" s="2">
         <v>869</v>
       </c>
       <c r="B870" s="1" t="s">
@@ -29663,7 +29664,7 @@
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A871">
+      <c r="A871" s="2">
         <v>870</v>
       </c>
       <c r="B871" s="1" t="s">
@@ -29683,7 +29684,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A872">
+      <c r="A872" s="2">
         <v>871</v>
       </c>
       <c r="B872" s="1" t="s">
@@ -29703,7 +29704,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A873">
+      <c r="A873" s="2">
         <v>872</v>
       </c>
       <c r="B873" s="1" t="s">
@@ -29723,7 +29724,7 @@
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A874">
+      <c r="A874" s="2">
         <v>873</v>
       </c>
       <c r="B874" s="1" t="s">
@@ -29743,7 +29744,7 @@
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A875">
+      <c r="A875" s="2">
         <v>874</v>
       </c>
       <c r="B875" s="1" t="s">
@@ -29763,7 +29764,7 @@
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A876">
+      <c r="A876" s="2">
         <v>875</v>
       </c>
       <c r="B876" s="1" t="s">
@@ -29783,7 +29784,7 @@
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A877">
+      <c r="A877" s="2">
         <v>876</v>
       </c>
       <c r="B877" s="1" t="s">
@@ -29803,7 +29804,7 @@
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A878">
+      <c r="A878" s="2">
         <v>877</v>
       </c>
       <c r="B878" s="1" t="s">
@@ -29823,7 +29824,7 @@
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A879">
+      <c r="A879" s="2">
         <v>878</v>
       </c>
       <c r="B879" s="1" t="s">
@@ -29843,7 +29844,7 @@
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A880">
+      <c r="A880" s="2">
         <v>879</v>
       </c>
       <c r="B880" s="1" t="s">
@@ -29863,7 +29864,7 @@
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A881">
+      <c r="A881" s="2">
         <v>880</v>
       </c>
       <c r="B881" s="1" t="s">
@@ -29883,7 +29884,7 @@
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A882">
+      <c r="A882" s="2">
         <v>881</v>
       </c>
       <c r="B882" s="1" t="s">
@@ -29903,7 +29904,7 @@
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A883">
+      <c r="A883" s="2">
         <v>882</v>
       </c>
       <c r="B883" s="1" t="s">
@@ -29923,7 +29924,7 @@
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A884">
+      <c r="A884" s="2">
         <v>883</v>
       </c>
       <c r="B884" s="1" t="s">
@@ -29943,7 +29944,7 @@
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A885">
+      <c r="A885" s="2">
         <v>884</v>
       </c>
       <c r="B885" s="1" t="s">
@@ -29963,7 +29964,7 @@
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A886">
+      <c r="A886" s="2">
         <v>885</v>
       </c>
       <c r="B886" s="1" t="s">
@@ -29983,7 +29984,7 @@
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A887">
+      <c r="A887" s="2">
         <v>886</v>
       </c>
       <c r="B887" s="1" t="s">
@@ -30003,7 +30004,7 @@
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A888">
+      <c r="A888" s="2">
         <v>887</v>
       </c>
       <c r="B888" s="1" t="s">
@@ -30023,7 +30024,7 @@
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A889">
+      <c r="A889" s="2">
         <v>888</v>
       </c>
       <c r="B889" s="1" t="s">
@@ -30043,7 +30044,7 @@
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A890">
+      <c r="A890" s="2">
         <v>889</v>
       </c>
       <c r="B890" s="1" t="s">
@@ -30063,7 +30064,7 @@
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A891">
+      <c r="A891" s="2">
         <v>890</v>
       </c>
       <c r="B891" s="1" t="s">
@@ -30083,7 +30084,7 @@
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A892">
+      <c r="A892" s="2">
         <v>891</v>
       </c>
       <c r="B892" s="1" t="s">
@@ -30103,7 +30104,7 @@
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A893">
+      <c r="A893" s="2">
         <v>892</v>
       </c>
       <c r="B893" s="1" t="s">
@@ -30123,7 +30124,7 @@
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A894">
+      <c r="A894" s="2">
         <v>893</v>
       </c>
       <c r="B894" s="1" t="s">
@@ -30143,7 +30144,7 @@
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A895">
+      <c r="A895" s="2">
         <v>894</v>
       </c>
       <c r="B895" s="1" t="s">
@@ -30163,7 +30164,7 @@
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A896">
+      <c r="A896" s="2">
         <v>895</v>
       </c>
       <c r="B896" s="1" t="s">
@@ -30183,7 +30184,7 @@
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A897">
+      <c r="A897" s="2">
         <v>896</v>
       </c>
       <c r="B897" s="1" t="s">
@@ -30203,7 +30204,7 @@
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A898">
+      <c r="A898" s="2">
         <v>897</v>
       </c>
       <c r="B898" s="1" t="s">
@@ -30223,7 +30224,7 @@
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A899">
+      <c r="A899" s="2">
         <v>898</v>
       </c>
       <c r="B899" s="1" t="s">
@@ -30243,7 +30244,7 @@
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A900">
+      <c r="A900" s="2">
         <v>899</v>
       </c>
       <c r="B900" s="1" t="s">
@@ -30263,7 +30264,7 @@
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A901">
+      <c r="A901" s="2">
         <v>900</v>
       </c>
       <c r="B901" s="1" t="s">
@@ -30283,7 +30284,7 @@
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A902">
+      <c r="A902" s="2">
         <v>901</v>
       </c>
       <c r="B902" s="1" t="s">
@@ -30303,7 +30304,7 @@
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A903">
+      <c r="A903" s="2">
         <v>902</v>
       </c>
       <c r="B903" s="1" t="s">
@@ -30323,7 +30324,7 @@
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A904">
+      <c r="A904" s="2">
         <v>903</v>
       </c>
       <c r="B904" s="1" t="s">
@@ -30343,7 +30344,7 @@
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A905">
+      <c r="A905" s="2">
         <v>904</v>
       </c>
       <c r="B905" s="1" t="s">
@@ -30363,7 +30364,7 @@
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A906">
+      <c r="A906" s="2">
         <v>905</v>
       </c>
       <c r="B906" s="1" t="s">
@@ -30383,7 +30384,7 @@
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A907">
+      <c r="A907" s="2">
         <v>906</v>
       </c>
       <c r="B907" s="1" t="s">
@@ -30403,7 +30404,7 @@
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A908">
+      <c r="A908" s="2">
         <v>907</v>
       </c>
       <c r="B908" s="1" t="s">
@@ -30423,7 +30424,7 @@
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A909">
+      <c r="A909" s="2">
         <v>908</v>
       </c>
       <c r="B909" s="1" t="s">
@@ -30443,7 +30444,7 @@
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A910">
+      <c r="A910" s="2">
         <v>909</v>
       </c>
       <c r="B910" s="1" t="s">
@@ -30463,7 +30464,7 @@
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A911">
+      <c r="A911" s="2">
         <v>910</v>
       </c>
       <c r="B911" s="1" t="s">
@@ -30483,7 +30484,7 @@
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A912">
+      <c r="A912" s="2">
         <v>911</v>
       </c>
       <c r="B912" s="1" t="s">
@@ -30503,7 +30504,7 @@
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A913">
+      <c r="A913" s="2">
         <v>912</v>
       </c>
       <c r="B913" s="1" t="s">
@@ -30523,7 +30524,7 @@
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A914">
+      <c r="A914" s="2">
         <v>913</v>
       </c>
       <c r="B914" s="1" t="s">
@@ -30543,7 +30544,7 @@
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A915">
+      <c r="A915" s="2">
         <v>914</v>
       </c>
       <c r="B915" s="1" t="s">
@@ -30563,7 +30564,7 @@
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A916">
+      <c r="A916" s="2">
         <v>915</v>
       </c>
       <c r="B916" s="1" t="s">
@@ -30583,7 +30584,7 @@
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A917">
+      <c r="A917" s="2">
         <v>916</v>
       </c>
       <c r="B917" s="1" t="s">
@@ -30603,7 +30604,7 @@
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A918">
+      <c r="A918" s="2">
         <v>917</v>
       </c>
       <c r="B918" s="1" t="s">
@@ -30623,7 +30624,7 @@
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A919">
+      <c r="A919" s="2">
         <v>918</v>
       </c>
       <c r="B919" s="1" t="s">
@@ -30643,7 +30644,7 @@
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A920">
+      <c r="A920" s="2">
         <v>919</v>
       </c>
       <c r="B920" s="1" t="s">
@@ -30663,7 +30664,7 @@
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A921">
+      <c r="A921" s="2">
         <v>920</v>
       </c>
       <c r="B921" s="1" t="s">
@@ -30683,7 +30684,7 @@
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A922">
+      <c r="A922" s="2">
         <v>921</v>
       </c>
       <c r="B922" s="1" t="s">
@@ -30703,7 +30704,7 @@
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A923">
+      <c r="A923" s="2">
         <v>922</v>
       </c>
       <c r="B923" s="1" t="s">
@@ -30723,7 +30724,7 @@
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A924">
+      <c r="A924" s="2">
         <v>923</v>
       </c>
       <c r="B924" s="1" t="s">
@@ -30743,7 +30744,7 @@
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A925">
+      <c r="A925" s="2">
         <v>924</v>
       </c>
       <c r="B925" s="1" t="s">
@@ -30763,7 +30764,7 @@
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A926">
+      <c r="A926" s="2">
         <v>925</v>
       </c>
       <c r="B926" s="1" t="s">
@@ -30783,7 +30784,7 @@
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A927">
+      <c r="A927" s="2">
         <v>926</v>
       </c>
       <c r="B927" s="1" t="s">
@@ -30803,7 +30804,7 @@
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A928">
+      <c r="A928" s="2">
         <v>927</v>
       </c>
       <c r="B928" s="1" t="s">
@@ -30823,7 +30824,7 @@
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A929">
+      <c r="A929" s="2">
         <v>928</v>
       </c>
       <c r="B929" s="1" t="s">
@@ -30843,7 +30844,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A930">
+      <c r="A930" s="2">
         <v>929</v>
       </c>
       <c r="B930" s="1" t="s">
@@ -30863,7 +30864,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A931">
+      <c r="A931" s="2">
         <v>930</v>
       </c>
       <c r="B931" s="1" t="s">
@@ -30883,7 +30884,7 @@
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A932">
+      <c r="A932" s="2">
         <v>931</v>
       </c>
       <c r="B932" s="1" t="s">
@@ -30903,7 +30904,7 @@
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A933">
+      <c r="A933" s="2">
         <v>932</v>
       </c>
       <c r="B933" s="1" t="s">
@@ -30923,7 +30924,7 @@
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A934">
+      <c r="A934" s="2">
         <v>933</v>
       </c>
       <c r="B934" s="1" t="s">
@@ -30943,7 +30944,7 @@
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A935">
+      <c r="A935" s="2">
         <v>934</v>
       </c>
       <c r="B935" s="1" t="s">
@@ -30963,7 +30964,7 @@
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A936">
+      <c r="A936" s="2">
         <v>935</v>
       </c>
       <c r="B936" s="1" t="s">
@@ -30983,7 +30984,7 @@
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A937">
+      <c r="A937" s="2">
         <v>936</v>
       </c>
       <c r="B937" s="1" t="s">
@@ -31003,7 +31004,7 @@
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A938">
+      <c r="A938" s="2">
         <v>937</v>
       </c>
       <c r="B938" s="1" t="s">
@@ -31023,7 +31024,7 @@
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A939">
+      <c r="A939" s="2">
         <v>938</v>
       </c>
       <c r="B939" s="1" t="s">
@@ -31043,7 +31044,7 @@
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A940">
+      <c r="A940" s="2">
         <v>939</v>
       </c>
       <c r="B940" s="1" t="s">
@@ -31063,7 +31064,7 @@
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A941">
+      <c r="A941" s="2">
         <v>940</v>
       </c>
       <c r="B941" s="1" t="s">
@@ -31083,7 +31084,7 @@
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A942">
+      <c r="A942" s="2">
         <v>941</v>
       </c>
       <c r="B942" s="1" t="s">
@@ -31103,7 +31104,7 @@
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A943">
+      <c r="A943" s="2">
         <v>942</v>
       </c>
       <c r="B943" s="1" t="s">
@@ -31123,7 +31124,7 @@
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A944">
+      <c r="A944" s="2">
         <v>943</v>
       </c>
       <c r="B944" s="1" t="s">
@@ -31143,7 +31144,7 @@
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A945">
+      <c r="A945" s="2">
         <v>944</v>
       </c>
       <c r="B945" s="1" t="s">
@@ -31163,7 +31164,7 @@
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A946">
+      <c r="A946" s="2">
         <v>945</v>
       </c>
       <c r="B946" s="1" t="s">
@@ -31183,7 +31184,7 @@
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A947">
+      <c r="A947" s="2">
         <v>946</v>
       </c>
       <c r="B947" s="1" t="s">
@@ -31203,7 +31204,7 @@
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A948">
+      <c r="A948" s="2">
         <v>947</v>
       </c>
       <c r="B948" s="1" t="s">
@@ -31223,7 +31224,7 @@
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A949">
+      <c r="A949" s="2">
         <v>948</v>
       </c>
       <c r="B949" s="1" t="s">
@@ -31243,7 +31244,7 @@
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A950">
+      <c r="A950" s="2">
         <v>949</v>
       </c>
       <c r="B950" s="1" t="s">
@@ -31263,7 +31264,7 @@
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A951">
+      <c r="A951" s="2">
         <v>950</v>
       </c>
       <c r="B951" s="1" t="s">
@@ -31283,7 +31284,7 @@
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A952">
+      <c r="A952" s="2">
         <v>951</v>
       </c>
       <c r="B952" s="1" t="s">
@@ -31303,7 +31304,7 @@
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A953">
+      <c r="A953" s="2">
         <v>952</v>
       </c>
       <c r="B953" s="1" t="s">
@@ -31323,7 +31324,7 @@
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A954">
+      <c r="A954" s="2">
         <v>953</v>
       </c>
       <c r="B954" s="1" t="s">
@@ -31343,7 +31344,7 @@
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A955">
+      <c r="A955" s="2">
         <v>954</v>
       </c>
       <c r="B955" s="1" t="s">
@@ -31363,7 +31364,7 @@
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A956">
+      <c r="A956" s="2">
         <v>955</v>
       </c>
       <c r="B956" s="1" t="s">
@@ -31383,7 +31384,7 @@
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A957">
+      <c r="A957" s="2">
         <v>956</v>
       </c>
       <c r="B957" s="1" t="s">
@@ -31403,7 +31404,7 @@
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A958">
+      <c r="A958" s="2">
         <v>957</v>
       </c>
       <c r="B958" s="1" t="s">
@@ -31423,7 +31424,7 @@
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A959">
+      <c r="A959" s="2">
         <v>958</v>
       </c>
       <c r="B959" s="1" t="s">
@@ -31443,7 +31444,7 @@
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A960">
+      <c r="A960" s="2">
         <v>959</v>
       </c>
       <c r="B960" s="1" t="s">
@@ -31463,7 +31464,7 @@
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A961">
+      <c r="A961" s="2">
         <v>960</v>
       </c>
       <c r="B961" s="1" t="s">
@@ -31483,7 +31484,7 @@
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A962">
+      <c r="A962" s="2">
         <v>961</v>
       </c>
       <c r="B962" s="1" t="s">
@@ -31503,7 +31504,7 @@
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A963">
+      <c r="A963" s="2">
         <v>962</v>
       </c>
       <c r="B963" s="1" t="s">
@@ -31523,7 +31524,7 @@
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A964">
+      <c r="A964" s="2">
         <v>963</v>
       </c>
       <c r="B964" s="1" t="s">
@@ -31543,7 +31544,7 @@
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A965">
+      <c r="A965" s="2">
         <v>964</v>
       </c>
       <c r="B965" s="1" t="s">
@@ -31563,7 +31564,7 @@
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A966">
+      <c r="A966" s="2">
         <v>965</v>
       </c>
       <c r="B966" s="1" t="s">
@@ -31583,7 +31584,7 @@
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A967">
+      <c r="A967" s="2">
         <v>966</v>
       </c>
       <c r="B967" s="1" t="s">
@@ -31603,7 +31604,7 @@
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A968">
+      <c r="A968" s="2">
         <v>967</v>
       </c>
       <c r="B968" s="1" t="s">
@@ -31623,7 +31624,7 @@
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A969">
+      <c r="A969" s="2">
         <v>968</v>
       </c>
       <c r="B969" s="1" t="s">
@@ -31643,7 +31644,7 @@
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A970">
+      <c r="A970" s="2">
         <v>969</v>
       </c>
       <c r="B970" s="1" t="s">
@@ -31663,7 +31664,7 @@
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A971">
+      <c r="A971" s="2">
         <v>970</v>
       </c>
       <c r="B971" s="1" t="s">
@@ -31683,7 +31684,7 @@
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A972">
+      <c r="A972" s="2">
         <v>971</v>
       </c>
       <c r="B972" s="1" t="s">
@@ -31703,7 +31704,7 @@
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A973">
+      <c r="A973" s="2">
         <v>972</v>
       </c>
       <c r="B973" s="1" t="s">
@@ -31723,7 +31724,7 @@
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A974">
+      <c r="A974" s="2">
         <v>973</v>
       </c>
       <c r="B974" s="1" t="s">
@@ -31743,7 +31744,7 @@
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A975">
+      <c r="A975" s="2">
         <v>974</v>
       </c>
       <c r="B975" s="1" t="s">
@@ -31763,7 +31764,7 @@
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A976">
+      <c r="A976" s="2">
         <v>975</v>
       </c>
       <c r="B976" s="1" t="s">
@@ -31783,7 +31784,7 @@
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A977">
+      <c r="A977" s="2">
         <v>976</v>
       </c>
       <c r="B977" s="1" t="s">
@@ -31803,7 +31804,7 @@
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A978">
+      <c r="A978" s="2">
         <v>977</v>
       </c>
       <c r="B978" s="1" t="s">
@@ -31823,7 +31824,7 @@
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A979">
+      <c r="A979" s="2">
         <v>978</v>
       </c>
       <c r="B979" s="1" t="s">
@@ -31843,7 +31844,7 @@
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A980">
+      <c r="A980" s="2">
         <v>979</v>
       </c>
       <c r="B980" s="1" t="s">
@@ -31863,7 +31864,7 @@
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A981">
+      <c r="A981" s="2">
         <v>980</v>
       </c>
       <c r="B981" s="1" t="s">
@@ -31883,7 +31884,7 @@
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A982">
+      <c r="A982" s="2">
         <v>981</v>
       </c>
       <c r="B982" s="1" t="s">
@@ -31903,7 +31904,7 @@
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A983">
+      <c r="A983" s="2">
         <v>982</v>
       </c>
       <c r="B983" s="1" t="s">
@@ -31923,7 +31924,7 @@
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A984">
+      <c r="A984" s="2">
         <v>983</v>
       </c>
       <c r="B984" s="1" t="s">
@@ -31943,7 +31944,7 @@
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A985">
+      <c r="A985" s="2">
         <v>984</v>
       </c>
       <c r="B985" s="1" t="s">
@@ -31963,7 +31964,7 @@
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A986">
+      <c r="A986" s="2">
         <v>985</v>
       </c>
       <c r="B986" s="1" t="s">
@@ -31983,7 +31984,7 @@
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A987">
+      <c r="A987" s="2">
         <v>986</v>
       </c>
       <c r="B987" s="1" t="s">
@@ -32003,7 +32004,7 @@
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A988">
+      <c r="A988" s="2">
         <v>987</v>
       </c>
       <c r="B988" s="1" t="s">
@@ -32023,7 +32024,7 @@
       </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A989">
+      <c r="A989" s="2">
         <v>988</v>
       </c>
       <c r="B989" s="1" t="s">
@@ -32043,7 +32044,7 @@
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A990">
+      <c r="A990" s="2">
         <v>989</v>
       </c>
       <c r="B990" s="1" t="s">
@@ -32063,7 +32064,7 @@
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A991">
+      <c r="A991" s="2">
         <v>990</v>
       </c>
       <c r="B991" s="1" t="s">
@@ -32083,7 +32084,7 @@
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A992">
+      <c r="A992" s="2">
         <v>991</v>
       </c>
       <c r="B992" s="1" t="s">
@@ -32103,7 +32104,7 @@
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A993">
+      <c r="A993" s="2">
         <v>992</v>
       </c>
       <c r="B993" s="1" t="s">
@@ -32123,7 +32124,7 @@
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A994">
+      <c r="A994" s="2">
         <v>993</v>
       </c>
       <c r="B994" s="1" t="s">
@@ -32143,7 +32144,7 @@
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A995">
+      <c r="A995" s="2">
         <v>994</v>
       </c>
       <c r="B995" s="1" t="s">
@@ -32163,7 +32164,7 @@
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A996">
+      <c r="A996" s="2">
         <v>995</v>
       </c>
       <c r="B996" s="1" t="s">
@@ -32183,7 +32184,7 @@
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A997">
+      <c r="A997" s="2">
         <v>996</v>
       </c>
       <c r="B997" s="1" t="s">
@@ -32203,7 +32204,7 @@
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A998">
+      <c r="A998" s="2">
         <v>997</v>
       </c>
       <c r="B998" s="1" t="s">
@@ -32223,7 +32224,7 @@
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A999">
+      <c r="A999" s="2">
         <v>998</v>
       </c>
       <c r="B999" s="1" t="s">
@@ -32243,7 +32244,7 @@
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1000">
+      <c r="A1000" s="2">
         <v>999</v>
       </c>
       <c r="B1000" s="1" t="s">
@@ -32263,7 +32264,7 @@
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1001">
+      <c r="A1001" s="2">
         <v>1000</v>
       </c>
       <c r="B1001" s="1" t="s">
